--- a/Optimization/lab1/sergey/lab1/LR1.xlsx
+++ b/Optimization/lab1/sergey/lab1/LR1.xlsx
@@ -1,56 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GUAPKirill\6 семестр\Прикладные модели оптимизации\ЛР1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MonAmi\Documents\GitHub\Sem6\Optimization\lab1\sergey\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F73E5D0F-15F7-4BFB-A080-2D1A805E1E53}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7AA71D-E10E-4D24-A303-B0D4FABD7823}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{B8BE8521-527A-47A0-A8C4-D6CAED558E1F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7980" activeTab="3" xr2:uid="{B8BE8521-527A-47A0-A8C4-D6CAED558E1F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Отчет о результатах 1" sheetId="8" r:id="rId1"/>
+    <sheet name="Отчет об устойчивости 1" sheetId="9" r:id="rId2"/>
+    <sheet name="Отчет о пределах 1" sheetId="10" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Лист1!$B$18:$D$18</definedName>
-    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Лист1!$B$18:$D$18</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Лист1!$E$7:$E$9</definedName>
-    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Лист1!$E$14</definedName>
-    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Лист1!$G$7:$G$9</definedName>
-    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">Лист1!$B$13:$D$13</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Лист1!$B$13:$D$13</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Лист1!$E$3:$E$6</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">Лист1!$E$9</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">Лист1!$G$3:$G$6</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="75">
   <si>
     <t>Тип</t>
   </si>
@@ -74,15 +78,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>Сборка, ч</t>
-  </si>
-  <si>
-    <t>Проверка, ч</t>
-  </si>
-  <si>
-    <t>Упаковка, ч</t>
-  </si>
-  <si>
     <t>Прибыль за 1 ед.</t>
   </si>
   <si>
@@ -95,26 +90,232 @@
     <t>Суммарная прибыль</t>
   </si>
   <si>
-    <t>Ресурсы рабочего времени</t>
-  </si>
-  <si>
-    <t>Себестоимость, $</t>
-  </si>
-  <si>
-    <t>Цена, $</t>
-  </si>
-  <si>
     <t xml:space="preserve">Объём производства </t>
+  </si>
+  <si>
+    <t>Ресурсы</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Отчет о результатах</t>
+  </si>
+  <si>
+    <t>Лист: [LR1.xlsx]Лист1</t>
+  </si>
+  <si>
+    <t>Результат: Решение найдено. Все ограничения и условия оптимальности выполнены.</t>
+  </si>
+  <si>
+    <t>Модуль поиска решения</t>
+  </si>
+  <si>
+    <t>Модуль: Поиск решения лин. задач симплекс-методом</t>
+  </si>
+  <si>
+    <t>Число итераций: 3 Число подзадач: 0</t>
+  </si>
+  <si>
+    <t>Параметры поиска решения</t>
+  </si>
+  <si>
+    <t>Максимальное время Без пределов,  Число итераций Без пределов, Precision 0.000001, Использовать автоматическое масштабирование</t>
+  </si>
+  <si>
+    <t>Максимальное число подзадач Без пределов, Максимальное число целочисленных решений Без пределов, Целочисленное отклонение 1%</t>
+  </si>
+  <si>
+    <t>Ячейка целевой функции (Максимум)</t>
+  </si>
+  <si>
+    <t>Ячейка</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Исходное значение</t>
+  </si>
+  <si>
+    <t>Окончательное значение</t>
+  </si>
+  <si>
+    <t>Ячейки переменных</t>
+  </si>
+  <si>
+    <t>Целочисленное</t>
+  </si>
+  <si>
+    <t>Ограничения</t>
+  </si>
+  <si>
+    <t>Значение ячейки</t>
+  </si>
+  <si>
+    <t>Формула</t>
+  </si>
+  <si>
+    <t>Состояние</t>
+  </si>
+  <si>
+    <t>Допуск</t>
+  </si>
+  <si>
+    <t>$E$9</t>
+  </si>
+  <si>
+    <t>Прибыль за 1 ед. Суммарная прибыль</t>
+  </si>
+  <si>
+    <t>$B$13</t>
+  </si>
+  <si>
+    <t>Объём производства  A</t>
+  </si>
+  <si>
+    <t>Продолжить</t>
+  </si>
+  <si>
+    <t>$C$13</t>
+  </si>
+  <si>
+    <t>Объём производства  B</t>
+  </si>
+  <si>
+    <t>$D$13</t>
+  </si>
+  <si>
+    <t>Объём производства  C</t>
+  </si>
+  <si>
+    <t>$E$3</t>
+  </si>
+  <si>
+    <t>$E$3&lt;=$G$3</t>
+  </si>
+  <si>
+    <t>Привязка</t>
+  </si>
+  <si>
+    <t>$E$4</t>
+  </si>
+  <si>
+    <t>$E$4&lt;=$G$4</t>
+  </si>
+  <si>
+    <t>Без привязки</t>
+  </si>
+  <si>
+    <t>$E$5</t>
+  </si>
+  <si>
+    <t>$E$5&lt;=$G$5</t>
+  </si>
+  <si>
+    <t>$E$6</t>
+  </si>
+  <si>
+    <t>$E$6&lt;=$G$6</t>
+  </si>
+  <si>
+    <t>$B$13&gt;=0</t>
+  </si>
+  <si>
+    <t>$C$13&gt;=0</t>
+  </si>
+  <si>
+    <t>$D$13&gt;=0</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Отчет об устойчивости</t>
+  </si>
+  <si>
+    <t>Окончательное</t>
+  </si>
+  <si>
+    <t>Значение</t>
+  </si>
+  <si>
+    <t>Приведенн.</t>
+  </si>
+  <si>
+    <t>Стоимость</t>
+  </si>
+  <si>
+    <t>Целевая функция</t>
+  </si>
+  <si>
+    <t>Коэффициент</t>
+  </si>
+  <si>
+    <t>Допустимое</t>
+  </si>
+  <si>
+    <t>Увеличение</t>
+  </si>
+  <si>
+    <t>Уменьшение</t>
+  </si>
+  <si>
+    <t>Тень</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Ограничение</t>
+  </si>
+  <si>
+    <t>Правая сторона</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Отчет о пределах</t>
+  </si>
+  <si>
+    <t>Переменная</t>
+  </si>
+  <si>
+    <t>Нижний</t>
+  </si>
+  <si>
+    <t>Предел</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>Верхний</t>
+  </si>
+  <si>
+    <t>Отчет создан: 2/26/2019 4:23:33 PM</t>
+  </si>
+  <si>
+    <t>Время решения: 0.031 секунд.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -147,7 +348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -410,18 +611,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -481,6 +728,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -794,219 +1058,1028 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2892BD45-60A0-4A77-912C-DB3EA2836F84}">
-  <dimension ref="A5:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD192842-CA40-430E-B308-B8FF1E4FD098}">
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="28">
+        <v>3795.8118753674312</v>
+      </c>
+      <c r="E16" s="28">
+        <v>3795.8118753674312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="29">
+        <v>118.8888888888889</v>
+      </c>
+      <c r="E21" s="29">
+        <v>118.8888888888889</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="29">
+        <v>0</v>
+      </c>
+      <c r="E22" s="29">
+        <v>0</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="28">
+        <v>1.6848912404467957</v>
+      </c>
+      <c r="E23" s="28">
+        <v>1.6848912404467957</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="29">
+        <v>136000</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="29">
+        <v>-120077.7777777778</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="27">
+        <v>20077.777777777796</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="29">
+        <v>5.4758965314520864</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="27">
+        <v>10.774103468547914</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="29">
+        <v>21.400000000000002</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="29">
+        <v>118.8888888888889</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="29">
+        <v>118.8888888888889</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="29">
+        <v>0</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="28">
+        <v>1.6848912404467957</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="28">
+        <v>1.6848912404467957</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18D6BA3-AEA4-46E6-87AB-D16FD8C5750F}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="27">
+        <v>118.8888888888889</v>
+      </c>
+      <c r="E9" s="27">
+        <v>0</v>
+      </c>
+      <c r="F9" s="27">
+        <v>30</v>
+      </c>
+      <c r="G9" s="27">
+        <v>1E+30</v>
+      </c>
+      <c r="H9" s="27">
+        <v>8.3928710665552746</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="27">
+        <v>0</v>
+      </c>
+      <c r="E10" s="27">
+        <v>-8.8591416813639015</v>
+      </c>
+      <c r="F10" s="27">
+        <v>22</v>
+      </c>
+      <c r="G10" s="27">
+        <v>8.8591416813639015</v>
+      </c>
+      <c r="H10" s="27">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="25">
+        <v>1.6848912404467957</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0</v>
+      </c>
+      <c r="F11" s="25">
+        <v>136</v>
+      </c>
+      <c r="G11" s="25">
+        <v>144.69306930693065</v>
+      </c>
+      <c r="H11" s="25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="27">
+        <v>136000</v>
+      </c>
+      <c r="E16" s="27">
+        <v>1.4391534391534393E-2</v>
+      </c>
+      <c r="F16" s="27">
+        <v>136000</v>
+      </c>
+      <c r="G16" s="27">
+        <v>31327.777777777777</v>
+      </c>
+      <c r="H16" s="27">
+        <v>15922.222222222219</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="27">
+        <v>-120077.7777777778</v>
+      </c>
+      <c r="E17" s="27">
+        <v>0</v>
+      </c>
+      <c r="F17" s="27">
+        <v>-100000</v>
+      </c>
+      <c r="G17" s="27">
+        <v>1E+30</v>
+      </c>
+      <c r="H17" s="27">
+        <v>20077.777777777781</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="27">
+        <v>5.4758965314520864</v>
+      </c>
+      <c r="E18" s="27">
+        <v>0</v>
+      </c>
+      <c r="F18" s="27">
+        <v>16.25</v>
+      </c>
+      <c r="G18" s="27">
+        <v>1E+30</v>
+      </c>
+      <c r="H18" s="27">
+        <v>10.774103468547914</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="25">
+        <v>21.400000000000002</v>
+      </c>
+      <c r="E19" s="25">
+        <v>85.914168136390344</v>
+      </c>
+      <c r="F19" s="25">
+        <v>21.4</v>
+      </c>
+      <c r="G19" s="25">
+        <v>2.837623762376237</v>
+      </c>
+      <c r="H19" s="25">
+        <v>3.5782178217821787</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334E87F3-DE85-44B4-9FF7-55E44D74EED5}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="30"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="28">
+        <v>3795.8118753674312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="F11" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="29">
+        <v>118.8888888888889</v>
+      </c>
+      <c r="F13" s="29">
+        <v>99.009900990099013</v>
+      </c>
+      <c r="G13" s="29">
+        <v>3199.4422384037348</v>
+      </c>
+      <c r="I13" s="29">
+        <v>118.8888888888889</v>
+      </c>
+      <c r="J13" s="29">
+        <v>3795.8118753674312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="29">
+        <v>0</v>
+      </c>
+      <c r="F14" s="29">
+        <v>0</v>
+      </c>
+      <c r="G14" s="29">
+        <v>3795.8118753674312</v>
+      </c>
+      <c r="I14" s="29">
+        <v>-1.8698493046318301E-14</v>
+      </c>
+      <c r="J14" s="29">
+        <v>3795.8118753674307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="28">
+        <v>1.6848912404467957</v>
+      </c>
+      <c r="F15" s="28">
+        <v>0</v>
+      </c>
+      <c r="G15" s="28">
+        <v>3566.666666666667</v>
+      </c>
+      <c r="I15" s="28">
+        <v>1.6848912404467942</v>
+      </c>
+      <c r="J15" s="28">
+        <v>3795.8118753674312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2892BD45-60A0-4A77-912C-DB3EA2836F84}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="3">
+        <v>1010</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1010</v>
+      </c>
+      <c r="D3" s="5">
+        <v>9450</v>
+      </c>
+      <c r="E3" s="15">
+        <f>SUMPRODUCT($B$13:$D$13,B3:D3)</f>
+        <v>136000</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="12">
+        <v>136000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="6">
+        <v>-1010</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <f>SUMPRODUCT($B$13:$D$13,B4:D4)</f>
+        <v>-120077.7777777778</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="13">
+        <v>-100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
+        <v>3.25</v>
+      </c>
+      <c r="E5" s="15">
+        <f>SUMPRODUCT($B$13:$D$13,B5:D5)</f>
+        <v>5.4758965314520864</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="14">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <f>SUMPRODUCT($B$13:$D$13,B6:D6)</f>
+        <v>21.400000000000002</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="14">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="11">
+        <v>30</v>
+      </c>
+      <c r="C9" s="11">
+        <v>22</v>
+      </c>
+      <c r="D9" s="11">
+        <v>136</v>
+      </c>
+      <c r="E9" s="22">
+        <f>SUMPRODUCT(B9:D9,B13:D13)</f>
+        <v>3795.8118753674312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5">
-        <v>3</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2</v>
-      </c>
-      <c r="E7" s="16">
-        <f>SUMPRODUCT($B$18:$D$18,B7:D7)</f>
-        <v>500.00000000000006</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="13">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="E8" s="16">
-        <f t="shared" ref="E8:E9" si="0">SUMPRODUCT($B$18:$D$18,B8:D8)</f>
-        <v>143.33333333333334</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="14">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="9">
-        <v>8</v>
-      </c>
-      <c r="C9" s="10">
-        <v>8</v>
-      </c>
-      <c r="D9" s="11">
-        <v>8</v>
-      </c>
-      <c r="E9" s="16">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="15">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4">
-        <v>70</v>
-      </c>
-      <c r="C11" s="5">
-        <v>60</v>
-      </c>
-      <c r="D11" s="6">
-        <v>50</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="9">
-        <v>110</v>
-      </c>
-      <c r="C12" s="10">
-        <v>90</v>
-      </c>
-      <c r="D12" s="11">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="12">
-        <f>B12-B11</f>
-        <v>40</v>
-      </c>
-      <c r="C14" s="12">
-        <f t="shared" ref="C14:D14" si="1">C12-C11</f>
-        <v>30</v>
-      </c>
-      <c r="D14" s="12">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="E14" s="23">
-        <f>SUMPRODUCT(B14:D14,B18:D18)</f>
-        <v>4395.8333333333339</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="20">
-        <v>91.666666666666671</v>
-      </c>
-      <c r="C18" s="21">
-        <v>0</v>
-      </c>
-      <c r="D18" s="22">
-        <v>20.833333333333336</v>
+      <c r="B13" s="19">
+        <v>118.8888888888889</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0</v>
+      </c>
+      <c r="D13" s="21">
+        <v>1.6848912404467957</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
